--- a/titles.xlsx
+++ b/titles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiilamo\Documents\Other_projects\ML_workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Documents\Other_projects\ML_workshop\ML_workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A03ED8-CF38-435A-A358-600C3D2C70A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE7D22-725B-41E2-9C8F-AD42822BC8BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8280" xr2:uid="{CD93F2DC-2954-44C5-8218-72A7AA4A36BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>Presenters</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Hannah Klinkhammer</t>
   </si>
   <si>
-    <t>Rannveig Hart</t>
-  </si>
-  <si>
     <t>Column7</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
   </si>
   <si>
     <t>Session 6: Predictions health</t>
-  </si>
-  <si>
-    <t>Explaining Childness: A machine learning approach</t>
   </si>
   <si>
     <t xml:space="preserve">Death Predictions from Social Determinants: Holistically and precisely with Explainable AI  </t>
@@ -606,6 +600,136 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -728,136 +852,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -872,39 +866,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5196A515-AD19-4638-B185-F301F54238E9}" name="Table2" displayName="Table2" ref="A1:I24" totalsRowShown="0">
-  <autoFilter ref="A1:I24" xr:uid="{77A09AE7-5ADC-4338-AB22-49BD2546D866}"/>
-  <sortState ref="A2:I24">
-    <sortCondition ref="B1:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5196A515-AD19-4638-B185-F301F54238E9}" name="Table2" displayName="Table2" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23" xr:uid="{77A09AE7-5ADC-4338-AB22-49BD2546D866}"/>
+  <sortState ref="A2:I23">
+    <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D2C484B1-E2FE-48E7-BB84-75C7A2D92C35}" name="Presenters"/>
-    <tableColumn id="2" xr3:uid="{B9B76B37-FE27-47C7-B079-5A24A71B6A08}" name="Session" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{D42DD514-0BC0-4BA2-87D4-F577F9C0D079}" name="Title" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{93DCE452-CF9B-4E8D-895B-4259FE109458}" name="Column1" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B7C77936-9E4A-4211-852F-811A177DABA9}" name="Column2" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{25EA7138-5081-4F56-82CE-392B98D8DCD6}" name="Column3" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2B5E9406-698F-4E4F-A353-F1D7B1684EE1}" name="Column4" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7E9BF7A2-3B68-4598-A6B3-42AD5278BCDC}" name="Column5" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{A1C4A9EF-8F5C-4540-A92B-80093FA815BB}" name="Column7" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B9B76B37-FE27-47C7-B079-5A24A71B6A08}" name="Session" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{D42DD514-0BC0-4BA2-87D4-F577F9C0D079}" name="Title" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{93DCE452-CF9B-4E8D-895B-4259FE109458}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{B7C77936-9E4A-4211-852F-811A177DABA9}" name="Column2" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{25EA7138-5081-4F56-82CE-392B98D8DCD6}" name="Column3" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{2B5E9406-698F-4E4F-A353-F1D7B1684EE1}" name="Column4" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{7E9BF7A2-3B68-4598-A6B3-42AD5278BCDC}" name="Column5" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{A1C4A9EF-8F5C-4540-A92B-80093FA815BB}" name="Column7" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9291C72A-4BDA-45BA-BFEA-3009C284D87E}" name="Table1" displayName="Table1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9291C72A-4BDA-45BA-BFEA-3009C284D87E}" name="Table1" displayName="Table1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F24" xr:uid="{7E27700B-BF59-48BA-ABB1-291A75AF27D1}"/>
   <sortState ref="A2:F24">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4A9B434A-A2E5-4C21-ADDA-C2535ED14C96}" name="Presenters" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D6470C34-B3DC-4E2C-BE60-C92814573FEF}" name="Column1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C654290B-C88F-4401-8F0F-B8D4C76A90A4}" name="Column2" dataDxfId="12" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{3DD2CF57-C0E2-4BB2-A11F-01F547753ED9}" name="Column3" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{32D9E405-9BD7-46D7-A1E5-C74017330135}" name="Column4" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{8F4987CA-B3D5-412E-827B-57FF1895FF58}" name="Column5" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{4A9B434A-A2E5-4C21-ADDA-C2535ED14C96}" name="Presenters" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D6470C34-B3DC-4E2C-BE60-C92814573FEF}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C654290B-C88F-4401-8F0F-B8D4C76A90A4}" name="Column2" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{3DD2CF57-C0E2-4BB2-A11F-01F547753ED9}" name="Column3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{32D9E405-9BD7-46D7-A1E5-C74017330135}" name="Column4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8F4987CA-B3D5-412E-827B-57FF1895FF58}" name="Column5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1207,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D041EA-C789-4809-ABAF-068E9CBE3CCE}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
       </c>
       <c r="D1" t="s">
         <v>111</v>
@@ -1245,7 +1239,7 @@
         <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>23</v>
@@ -1270,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>39</v>
@@ -1287,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>83</v>
@@ -1300,14 +1294,14 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>117</v>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1317,14 +1311,14 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1333,15 +1327,15 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1350,15 +1344,15 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>55</v>
+      <c r="C8" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1368,14 +1362,14 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
+      <c r="A9" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>102</v>
+        <v>124</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1386,13 +1380,13 @@
     </row>
     <row r="10" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1401,15 +1395,15 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1418,15 +1412,15 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
+    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1436,14 +1430,14 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
+      <c r="A13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1453,14 +1447,14 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
+      <c r="A14" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1470,14 +1464,14 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>120</v>
+      <c r="A15" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1487,14 +1481,14 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
+      <c r="A16" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>126</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1503,15 +1497,15 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
+    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>90</v>
+        <v>126</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1520,15 +1514,15 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>110</v>
+      <c r="C18" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1538,14 +1532,14 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
+      <c r="A19" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>59</v>
+        <v>127</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1555,14 +1549,14 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
+      <c r="A20" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>94</v>
+        <v>127</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1571,49 +1565,49 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>17</v>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1621,23 +1615,6 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="52.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
